--- a/proyecto-inteligencia-artificial/testing/dataset.xlsx
+++ b/proyecto-inteligencia-artificial/testing/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carri\Desktop\colores\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carri\Desktop\proyecto-final-ia\proyecto-inteligencia-artificial\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CB798F-AF54-4531-A45E-8875D2098AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC99FFE8-CCA8-48B4-B9EF-DCDB2E93EDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{D3551025-A259-4FD3-ACAC-0E781E51AD91}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18000" windowHeight="9270" xr2:uid="{1D4A3894-1A5B-4A28-8E57-58AE75636ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -374,14 +374,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AE12F8-1095-4E77-92ED-A192CBD79D84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF81B7EA-CAC6-4F44-AC3E-BF894B038F5C}">
   <dimension ref="A1:AE115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
